--- a/outcome/appendix/data/Fig.3 data.xlsx
+++ b/outcome/appendix/data/Fig.3 data.xlsx
@@ -494,19 +494,19 @@
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>-5.38</v>
+        <v>-5.26</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.77</v>
+        <v>-0.71</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.2</v>
+        <v>-1.14</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.4</v>
+        <v>-1.39</v>
       </c>
       <c r="H2" t="n">
-        <v>-2.02</v>
+        <v>-2.01</v>
       </c>
     </row>
     <row r="3">
@@ -520,19 +520,19 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4</v>
+        <v>0.26</v>
       </c>
       <c r="E3" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.61</v>
+        <v>-0.68</v>
       </c>
       <c r="G3" t="n">
-        <v>0.52</v>
+        <v>0.45</v>
       </c>
       <c r="H3" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4">
@@ -546,19 +546,19 @@
         <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.88</v>
+        <v>-1.85</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.61</v>
+        <v>-1.62</v>
       </c>
       <c r="F4" t="n">
         <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.91</v>
+        <v>-0.9</v>
       </c>
       <c r="H4" t="n">
-        <v>0.64</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="5">
@@ -572,19 +572,19 @@
         <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="E5" t="n">
-        <v>0.94</v>
+        <v>0.97</v>
       </c>
       <c r="F5" t="n">
         <v>-0.59</v>
       </c>
       <c r="G5" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="H5" t="n">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="6">
@@ -598,16 +598,16 @@
         <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>3.87</v>
+        <v>4.01</v>
       </c>
       <c r="E6" t="n">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="F6" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="G6" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="H6" t="n">
         <v>0.48</v>
@@ -624,19 +624,19 @@
         <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>1.86</v>
+        <v>1.7</v>
       </c>
       <c r="E7" t="n">
-        <v>0.34</v>
+        <v>0.22</v>
       </c>
       <c r="F7" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="H7" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8">
@@ -650,19 +650,19 @@
         <v>13</v>
       </c>
       <c r="D8" t="n">
-        <v>0.22</v>
+        <v>1.21</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.59</v>
+        <v>-0.1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.15</v>
+        <v>0.39</v>
       </c>
       <c r="G8" t="n">
-        <v>0.31</v>
+        <v>0.47</v>
       </c>
       <c r="H8" t="n">
-        <v>0.35</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="9">
@@ -676,19 +676,19 @@
         <v>13</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.95</v>
+        <v>-1.07</v>
       </c>
       <c r="F9" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="G9" t="n">
         <v>0.18</v>
       </c>
       <c r="H9" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="10">
@@ -702,19 +702,19 @@
         <v>13</v>
       </c>
       <c r="D10" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="E10" t="n">
-        <v>0.29</v>
+        <v>0.21</v>
       </c>
       <c r="F10" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="G10" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="H10" t="n">
-        <v>0.62</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="11">
@@ -728,19 +728,19 @@
         <v>13</v>
       </c>
       <c r="D11" t="n">
-        <v>3.73</v>
+        <v>3.6</v>
       </c>
       <c r="E11" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="F11" t="n">
-        <v>0.77</v>
+        <v>0.73</v>
       </c>
       <c r="G11" t="n">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="H11" t="n">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="12">
@@ -754,19 +754,19 @@
         <v>13</v>
       </c>
       <c r="D12" t="n">
-        <v>1.47</v>
+        <v>1.04</v>
       </c>
       <c r="E12" t="n">
-        <v>0.76</v>
+        <v>0.66</v>
       </c>
       <c r="F12" t="n">
-        <v>0.13</v>
+        <v>-0.01</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H12" t="n">
-        <v>0.28</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="13">
@@ -780,16 +780,16 @@
         <v>13</v>
       </c>
       <c r="D13" t="n">
-        <v>-6.92</v>
+        <v>-7.09</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.97</v>
+        <v>-1.14</v>
       </c>
       <c r="F13" t="n">
         <v>-1.97</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.98</v>
+        <v>-1.99</v>
       </c>
       <c r="H13" t="n">
         <v>-2</v>
@@ -815,7 +815,7 @@
         <v>0.72</v>
       </c>
       <c r="G14" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="H14" t="n">
         <v>0.45</v>
@@ -832,19 +832,19 @@
         <v>10</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.3</v>
+        <v>-0.34</v>
       </c>
       <c r="E15" t="n">
         <v>0.42</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.12</v>
+        <v>-1.14</v>
       </c>
       <c r="G15" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="H15" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="16">
@@ -858,16 +858,16 @@
         <v>10</v>
       </c>
       <c r="D16" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="E16" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="F16" t="n">
         <v>0.71</v>
       </c>
       <c r="G16" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="H16" t="n">
         <v>0.43</v>
@@ -884,7 +884,7 @@
         <v>10</v>
       </c>
       <c r="D17" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="E17" t="n">
         <v>0.43</v>
@@ -910,16 +910,16 @@
         <v>10</v>
       </c>
       <c r="D18" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="E18" t="n">
         <v>0.43</v>
       </c>
       <c r="F18" t="n">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="G18" t="n">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="H18" t="n">
         <v>0.48</v>
@@ -936,16 +936,16 @@
         <v>10</v>
       </c>
       <c r="D19" t="n">
-        <v>-7.52</v>
+        <v>-7.5</v>
       </c>
       <c r="E19" t="n">
         <v>-2.04</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.42</v>
+        <v>-1.41</v>
       </c>
       <c r="G19" t="n">
-        <v>-2.03</v>
+        <v>-2.02</v>
       </c>
       <c r="H19" t="n">
         <v>-2.03</v>
@@ -962,19 +962,19 @@
         <v>12</v>
       </c>
       <c r="D20" t="n">
-        <v>0.56</v>
+        <v>-2.5</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.8</v>
+        <v>0.01</v>
       </c>
       <c r="F20" t="n">
-        <v>0.78</v>
+        <v>-0.89</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9</v>
+        <v>-2.02</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.32</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="21">
@@ -988,19 +988,19 @@
         <v>12</v>
       </c>
       <c r="D21" t="n">
-        <v>-2.62</v>
+        <v>-1.49</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.52</v>
+        <v>-1.01</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.49</v>
+        <v>-1.17</v>
       </c>
       <c r="G21" t="n">
-        <v>-1.18</v>
+        <v>0.27</v>
       </c>
       <c r="H21" t="n">
-        <v>0.56</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="22">
@@ -1014,19 +1014,19 @@
         <v>12</v>
       </c>
       <c r="D22" t="n">
-        <v>2.16</v>
+        <v>2.78</v>
       </c>
       <c r="E22" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="F22" t="n">
-        <v>0.33</v>
+        <v>0.73</v>
       </c>
       <c r="G22" t="n">
-        <v>0.11</v>
+        <v>0.47</v>
       </c>
       <c r="H22" t="n">
-        <v>0.56</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="23">
@@ -1040,19 +1040,19 @@
         <v>12</v>
       </c>
       <c r="D23" t="n">
-        <v>0.82</v>
+        <v>0.59</v>
       </c>
       <c r="E23" t="n">
-        <v>1.39</v>
+        <v>0.93</v>
       </c>
       <c r="F23" t="n">
-        <v>0.64</v>
+        <v>1.09</v>
       </c>
       <c r="G23" t="n">
-        <v>0.71</v>
+        <v>0.61</v>
       </c>
       <c r="H23" t="n">
-        <v>-1.91</v>
+        <v>-2.04</v>
       </c>
     </row>
     <row r="24">
@@ -1066,19 +1066,19 @@
         <v>12</v>
       </c>
       <c r="D24" t="n">
-        <v>1.31</v>
+        <v>1.86</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.78</v>
+        <v>0.21</v>
       </c>
       <c r="F24" t="n">
-        <v>0.77</v>
+        <v>0.86</v>
       </c>
       <c r="G24" t="n">
-        <v>0.77</v>
+        <v>0.41</v>
       </c>
       <c r="H24" t="n">
-        <v>0.55</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="25">
@@ -1092,19 +1092,19 @@
         <v>12</v>
       </c>
       <c r="D25" t="n">
-        <v>-2.23</v>
+        <v>-1.24</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.46</v>
+        <v>-1.3</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.03</v>
+        <v>-0.63</v>
       </c>
       <c r="G25" t="n">
-        <v>-1.3</v>
+        <v>0.27</v>
       </c>
       <c r="H25" t="n">
-        <v>0.57</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="26">
@@ -1274,19 +1274,19 @@
         <v>11</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.83</v>
+        <v>-1.29</v>
       </c>
       <c r="E32" t="n">
-        <v>1.54</v>
+        <v>-0.61</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.2</v>
+        <v>0.61</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.13</v>
+        <v>0.73</v>
       </c>
       <c r="H32" t="n">
-        <v>-2.04</v>
+        <v>-2.01</v>
       </c>
     </row>
     <row r="33">
@@ -1300,19 +1300,19 @@
         <v>11</v>
       </c>
       <c r="D33" t="n">
-        <v>2.32</v>
+        <v>3.49</v>
       </c>
       <c r="E33" t="n">
-        <v>0.96</v>
+        <v>1.62</v>
       </c>
       <c r="F33" t="n">
-        <v>0.3</v>
+        <v>0.57</v>
       </c>
       <c r="G33" t="n">
-        <v>0.56</v>
+        <v>0.69</v>
       </c>
       <c r="H33" t="n">
-        <v>0.51</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="34">
@@ -1326,19 +1326,19 @@
         <v>11</v>
       </c>
       <c r="D34" t="n">
-        <v>1.62</v>
+        <v>2.75</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.39</v>
+        <v>0.77</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="G34" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="H34" t="n">
-        <v>0.4</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="35">
@@ -1352,19 +1352,19 @@
         <v>11</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.58</v>
+        <v>-3.19</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.88</v>
+        <v>-0.14</v>
       </c>
       <c r="F35" t="n">
-        <v>0.23</v>
+        <v>-1.6</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.28</v>
+        <v>-1.57</v>
       </c>
       <c r="H35" t="n">
-        <v>0.35</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="36">
@@ -1378,19 +1378,19 @@
         <v>11</v>
       </c>
       <c r="D36" t="n">
-        <v>1.3</v>
+        <v>0.34</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.68</v>
+        <v>-0.99</v>
       </c>
       <c r="F36" t="n">
-        <v>0.77</v>
+        <v>0.56</v>
       </c>
       <c r="G36" t="n">
-        <v>0.84</v>
+        <v>0.34</v>
       </c>
       <c r="H36" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="37">
@@ -1404,19 +1404,19 @@
         <v>11</v>
       </c>
       <c r="D37" t="n">
-        <v>-3.84</v>
+        <v>-2.1</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.56</v>
+        <v>-0.64</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.89</v>
+        <v>-0.92</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.8</v>
+        <v>-0.93</v>
       </c>
       <c r="H37" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="38">
@@ -1430,19 +1430,19 @@
         <v>13</v>
       </c>
       <c r="D38" t="n">
-        <v>-1.75</v>
+        <v>-1.76</v>
       </c>
       <c r="E38" t="n">
-        <v>-1.14</v>
+        <v>-1.15</v>
       </c>
       <c r="F38" t="n">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="G38" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="H38" t="n">
-        <v>-1.92</v>
+        <v>-1.93</v>
       </c>
     </row>
     <row r="39">
@@ -1456,19 +1456,19 @@
         <v>13</v>
       </c>
       <c r="D39" t="n">
-        <v>-1.63</v>
+        <v>-1.64</v>
       </c>
       <c r="E39" t="n">
-        <v>0.59</v>
+        <v>0.58</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.56</v>
+        <v>-1.55</v>
       </c>
       <c r="G39" t="n">
         <v>-1.23</v>
       </c>
       <c r="H39" t="n">
-        <v>0.57</v>
+        <v>0.56</v>
       </c>
     </row>
     <row r="40">
@@ -1482,19 +1482,19 @@
         <v>13</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.51</v>
+        <v>-0.47</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.98</v>
+        <v>-0.93</v>
       </c>
       <c r="F40" t="n">
         <v>0.49</v>
       </c>
       <c r="G40" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="H40" t="n">
-        <v>-0.2</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="41">
@@ -1508,10 +1508,10 @@
         <v>13</v>
       </c>
       <c r="D41" t="n">
-        <v>3.7</v>
+        <v>3.71</v>
       </c>
       <c r="E41" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="F41" t="n">
         <v>0.56</v>
@@ -1520,7 +1520,7 @@
         <v>0.79</v>
       </c>
       <c r="H41" t="n">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="42">
@@ -1534,7 +1534,7 @@
         <v>13</v>
       </c>
       <c r="D42" t="n">
-        <v>2.25</v>
+        <v>2.26</v>
       </c>
       <c r="E42" t="n">
         <v>0.23</v>
@@ -1543,7 +1543,7 @@
         <v>0.95</v>
       </c>
       <c r="G42" t="n">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="H42" t="n">
         <v>0.35</v>
@@ -1560,10 +1560,10 @@
         <v>13</v>
       </c>
       <c r="D43" t="n">
-        <v>-2.06</v>
+        <v>-2.1</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.23</v>
+        <v>-0.26</v>
       </c>
       <c r="F43" t="n">
         <v>-0.94</v>
@@ -1572,7 +1572,7 @@
         <v>-1.28</v>
       </c>
       <c r="H43" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="44">
@@ -1742,19 +1742,19 @@
         <v>14</v>
       </c>
       <c r="D50" t="n">
-        <v>-5.74</v>
+        <v>-5.89</v>
       </c>
       <c r="E50" t="n">
         <v>-2.02</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.31</v>
+        <v>-1.34</v>
       </c>
       <c r="G50" t="n">
-        <v>-1.36</v>
+        <v>-1.39</v>
       </c>
       <c r="H50" t="n">
-        <v>-1.05</v>
+        <v>-1.13</v>
       </c>
     </row>
     <row r="51">
@@ -1768,19 +1768,19 @@
         <v>14</v>
       </c>
       <c r="D51" t="n">
-        <v>-3.55</v>
+        <v>-3.42</v>
       </c>
       <c r="E51" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.25</v>
+        <v>-1.2</v>
       </c>
       <c r="G51" t="n">
-        <v>-1.19</v>
+        <v>-1.14</v>
       </c>
       <c r="H51" t="n">
-        <v>-1.46</v>
+        <v>-1.41</v>
       </c>
     </row>
     <row r="52">
@@ -1794,19 +1794,19 @@
         <v>14</v>
       </c>
       <c r="D52" t="n">
-        <v>2.5</v>
+        <v>2.34</v>
       </c>
       <c r="E52" t="n">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="F52" t="n">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="G52" t="n">
-        <v>0.69</v>
+        <v>0.65</v>
       </c>
       <c r="H52" t="n">
-        <v>0.61</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="53">
@@ -1820,19 +1820,19 @@
         <v>14</v>
       </c>
       <c r="D53" t="n">
-        <v>2.09</v>
+        <v>1.99</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="F53" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="G53" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="H53" t="n">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="54">
@@ -1846,19 +1846,19 @@
         <v>14</v>
       </c>
       <c r="D54" t="n">
-        <v>2.11</v>
+        <v>1.99</v>
       </c>
       <c r="E54" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="F54" t="n">
-        <v>0.69</v>
+        <v>0.65</v>
       </c>
       <c r="G54" t="n">
-        <v>0.66</v>
+        <v>0.63</v>
       </c>
       <c r="H54" t="n">
-        <v>0.54</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="55">
@@ -1872,19 +1872,19 @@
         <v>14</v>
       </c>
       <c r="D55" t="n">
-        <v>2.6</v>
+        <v>2.99</v>
       </c>
       <c r="E55" t="n">
         <v>0.61</v>
       </c>
       <c r="F55" t="n">
-        <v>0.77</v>
+        <v>0.86</v>
       </c>
       <c r="G55" t="n">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="H55" t="n">
-        <v>0.4</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="56">
@@ -1895,22 +1895,22 @@
         <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D56" t="n">
-        <v>-4.65</v>
+        <v>-4.5</v>
       </c>
       <c r="E56" t="n">
-        <v>-2.01</v>
+        <v>-2.02</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.89</v>
+        <v>-1.92</v>
       </c>
       <c r="G56" t="n">
-        <v>-1.97</v>
+        <v>-1.98</v>
       </c>
       <c r="H56" t="n">
-        <v>1.22</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="57">
@@ -1921,22 +1921,22 @@
         <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.82</v>
+        <v>-0.67</v>
       </c>
       <c r="E57" t="n">
-        <v>0.49</v>
+        <v>0.52</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.09</v>
+        <v>-0.07</v>
       </c>
       <c r="G57" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="H57" t="n">
-        <v>-1.35</v>
+        <v>-1.27</v>
       </c>
     </row>
     <row r="58">
@@ -1947,22 +1947,22 @@
         <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.53</v>
+        <v>-0.36</v>
       </c>
       <c r="E58" t="n">
-        <v>0.35</v>
+        <v>0.38</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="G58" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="H58" t="n">
-        <v>-0.96</v>
+        <v>-0.87</v>
       </c>
     </row>
     <row r="59">
@@ -1973,22 +1973,22 @@
         <v>13</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D59" t="n">
-        <v>1.25</v>
+        <v>1.47</v>
       </c>
       <c r="E59" t="n">
-        <v>0.45</v>
+        <v>0.47</v>
       </c>
       <c r="F59" t="n">
-        <v>0.44</v>
+        <v>0.48</v>
       </c>
       <c r="G59" t="n">
-        <v>0.51</v>
+        <v>0.53</v>
       </c>
       <c r="H59" t="n">
-        <v>-0.15</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="60">
@@ -1999,22 +1999,22 @@
         <v>10</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D60" t="n">
-        <v>1.83</v>
+        <v>2.09</v>
       </c>
       <c r="E60" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="F60" t="n">
-        <v>0.61</v>
+        <v>0.66</v>
       </c>
       <c r="G60" t="n">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="H60" t="n">
-        <v>0.61</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="61">
@@ -2025,22 +2025,22 @@
         <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D61" t="n">
-        <v>2.92</v>
+        <v>1.98</v>
       </c>
       <c r="E61" t="n">
-        <v>0.61</v>
+        <v>0.52</v>
       </c>
       <c r="F61" t="n">
-        <v>0.93</v>
+        <v>0.8</v>
       </c>
       <c r="G61" t="n">
-        <v>0.76</v>
+        <v>0.69</v>
       </c>
       <c r="H61" t="n">
-        <v>0.62</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="62">
@@ -2054,19 +2054,19 @@
         <v>13</v>
       </c>
       <c r="D62" t="n">
-        <v>-1.38</v>
+        <v>-1.25</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.52</v>
+        <v>-0.41</v>
       </c>
       <c r="F62" t="n">
         <v>0.38</v>
       </c>
       <c r="G62" t="n">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="H62" t="n">
-        <v>-1.99</v>
+        <v>-1.98</v>
       </c>
     </row>
     <row r="63">
@@ -2080,19 +2080,19 @@
         <v>13</v>
       </c>
       <c r="D63" t="n">
-        <v>-2.52</v>
+        <v>-2.62</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.71</v>
+        <v>-0.75</v>
       </c>
       <c r="F63" t="n">
-        <v>-1</v>
+        <v>-1.02</v>
       </c>
       <c r="G63" t="n">
-        <v>-1.04</v>
+        <v>-1.06</v>
       </c>
       <c r="H63" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="64">
@@ -2106,16 +2106,16 @@
         <v>13</v>
       </c>
       <c r="D64" t="n">
-        <v>-1.83</v>
+        <v>-1.81</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.57</v>
+        <v>-0.59</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.73</v>
+        <v>-0.7</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.75</v>
+        <v>-0.72</v>
       </c>
       <c r="H64" t="n">
         <v>0.21</v>
@@ -2132,10 +2132,10 @@
         <v>13</v>
       </c>
       <c r="D65" t="n">
-        <v>4.98</v>
+        <v>5.03</v>
       </c>
       <c r="E65" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="F65" t="n">
         <v>1.27</v>
@@ -2144,7 +2144,7 @@
         <v>1.12</v>
       </c>
       <c r="H65" t="n">
-        <v>0.78</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="66">
@@ -2158,10 +2158,10 @@
         <v>13</v>
       </c>
       <c r="D66" t="n">
-        <v>2.91</v>
+        <v>2.84</v>
       </c>
       <c r="E66" t="n">
-        <v>0.55</v>
+        <v>0.49</v>
       </c>
       <c r="F66" t="n">
         <v>0.96</v>
@@ -2170,7 +2170,7 @@
         <v>0.84</v>
       </c>
       <c r="H66" t="n">
-        <v>0.55</v>
+        <v>0.56</v>
       </c>
     </row>
     <row r="67">
@@ -2184,10 +2184,10 @@
         <v>13</v>
       </c>
       <c r="D67" t="n">
-        <v>-2.15</v>
+        <v>-2.19</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.56</v>
+        <v>-0.57</v>
       </c>
       <c r="F67" t="n">
         <v>-0.89</v>
@@ -2196,7 +2196,7 @@
         <v>-0.91</v>
       </c>
       <c r="H67" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="68">
@@ -2392,7 +2392,7 @@
         <v>14</v>
       </c>
       <c r="D75" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="E75" t="n">
         <v>0.55</v>
@@ -2418,16 +2418,16 @@
         <v>14</v>
       </c>
       <c r="D76" t="n">
-        <v>-1.8</v>
+        <v>-1.81</v>
       </c>
       <c r="E76" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="F76" t="n">
         <v>-0.18</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.13</v>
+        <v>-0.14</v>
       </c>
       <c r="H76" t="n">
         <v>-1.57</v>
@@ -2444,7 +2444,7 @@
         <v>14</v>
       </c>
       <c r="D77" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="E77" t="n">
         <v>0.68</v>
@@ -2453,7 +2453,7 @@
         <v>0.24</v>
       </c>
       <c r="G77" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="H77" t="n">
         <v>-0.08</v>
@@ -2470,13 +2470,13 @@
         <v>14</v>
       </c>
       <c r="D78" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="E78" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="F78" t="n">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="G78" t="n">
         <v>0.78</v>
@@ -2496,16 +2496,16 @@
         <v>14</v>
       </c>
       <c r="D79" t="n">
-        <v>3.03</v>
+        <v>3.09</v>
       </c>
       <c r="E79" t="n">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="F79" t="n">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
       <c r="G79" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="H79" t="n">
         <v>1.21</v>
@@ -2522,16 +2522,16 @@
         <v>13</v>
       </c>
       <c r="D80" t="n">
-        <v>-5.18</v>
+        <v>-5.19</v>
       </c>
       <c r="E80" t="n">
         <v>-2.02</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.31</v>
+        <v>-0.32</v>
       </c>
       <c r="G80" t="n">
-        <v>-1</v>
+        <v>-1.01</v>
       </c>
       <c r="H80" t="n">
         <v>-1.84</v>
@@ -2548,10 +2548,10 @@
         <v>13</v>
       </c>
       <c r="D81" t="n">
-        <v>-3.73</v>
+        <v>-3.76</v>
       </c>
       <c r="E81" t="n">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="F81" t="n">
         <v>-1.91</v>
@@ -2574,19 +2574,19 @@
         <v>13</v>
       </c>
       <c r="D82" t="n">
-        <v>1.97</v>
+        <v>1.89</v>
       </c>
       <c r="E82" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F82" t="n">
         <v>0.48</v>
       </c>
-      <c r="F82" t="n">
-        <v>0.5</v>
-      </c>
       <c r="G82" t="n">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="H82" t="n">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="83">
@@ -2600,19 +2600,19 @@
         <v>13</v>
       </c>
       <c r="D83" t="n">
-        <v>2.71</v>
+        <v>2.63</v>
       </c>
       <c r="E83" t="n">
-        <v>0.59</v>
+        <v>0.56</v>
       </c>
       <c r="F83" t="n">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="G83" t="n">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="H83" t="n">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="84">
@@ -2626,19 +2626,19 @@
         <v>13</v>
       </c>
       <c r="D84" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="E84" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="F84" t="n">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="G84" t="n">
-        <v>0.77</v>
+        <v>0.74</v>
       </c>
       <c r="H84" t="n">
-        <v>0.57</v>
+        <v>0.56</v>
       </c>
     </row>
     <row r="85">
@@ -2652,19 +2652,19 @@
         <v>13</v>
       </c>
       <c r="D85" t="n">
-        <v>1.86</v>
+        <v>2.15</v>
       </c>
       <c r="E85" t="n">
-        <v>0.33</v>
+        <v>0.45</v>
       </c>
       <c r="F85" t="n">
-        <v>0.51</v>
+        <v>0.55</v>
       </c>
       <c r="G85" t="n">
-        <v>0.45</v>
+        <v>0.54</v>
       </c>
       <c r="H85" t="n">
-        <v>0.58</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="86">
@@ -2678,7 +2678,7 @@
         <v>13</v>
       </c>
       <c r="D86" t="n">
-        <v>-4.8</v>
+        <v>-4.75</v>
       </c>
       <c r="E86" t="n">
         <v>-1.29</v>
@@ -2690,7 +2690,7 @@
         <v>-1.31</v>
       </c>
       <c r="H86" t="n">
-        <v>-0.9</v>
+        <v>-0.86</v>
       </c>
     </row>
     <row r="87">
@@ -2704,7 +2704,7 @@
         <v>13</v>
       </c>
       <c r="D87" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="E87" t="n">
         <v>0.91</v>
@@ -2716,7 +2716,7 @@
         <v>0.44</v>
       </c>
       <c r="H87" t="n">
-        <v>-0.05</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="88">
@@ -2730,7 +2730,7 @@
         <v>13</v>
       </c>
       <c r="D88" t="n">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="E88" t="n">
         <v>-1.1</v>
@@ -2756,7 +2756,7 @@
         <v>13</v>
       </c>
       <c r="D89" t="n">
-        <v>3.41</v>
+        <v>3.4</v>
       </c>
       <c r="E89" t="n">
         <v>0.85</v>
@@ -2768,7 +2768,7 @@
         <v>0.96</v>
       </c>
       <c r="H89" t="n">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="90">
@@ -2782,7 +2782,7 @@
         <v>13</v>
       </c>
       <c r="D90" t="n">
-        <v>2.37</v>
+        <v>2.36</v>
       </c>
       <c r="E90" t="n">
         <v>-0.13</v>
@@ -2808,19 +2808,19 @@
         <v>13</v>
       </c>
       <c r="D91" t="n">
-        <v>-3.16</v>
+        <v>-3.19</v>
       </c>
       <c r="E91" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="F91" t="n">
         <v>-1.23</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.2</v>
+        <v>-1.21</v>
       </c>
       <c r="H91" t="n">
-        <v>-1.49</v>
+        <v>-1.52</v>
       </c>
     </row>
     <row r="92">
@@ -2831,19 +2831,19 @@
         <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D92" t="n">
-        <v>1</v>
+        <v>-0.02</v>
       </c>
       <c r="E92" t="n">
-        <v>1.02</v>
+        <v>0.5</v>
       </c>
       <c r="F92" t="n">
-        <v>1.38</v>
+        <v>0.91</v>
       </c>
       <c r="G92" t="n">
-        <v>0.56</v>
+        <v>0.54</v>
       </c>
       <c r="H92" t="n">
         <v>-1.97</v>
@@ -2857,16 +2857,16 @@
         <v>11</v>
       </c>
       <c r="C93" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D93" t="n">
-        <v>-1.75</v>
+        <v>-2.14</v>
       </c>
       <c r="E93" t="n">
-        <v>0.03</v>
+        <v>-0.22</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.72</v>
+        <v>-0.87</v>
       </c>
       <c r="G93" t="n">
         <v>-1.64</v>
@@ -2883,19 +2883,19 @@
         <v>12</v>
       </c>
       <c r="C94" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D94" t="n">
-        <v>3.22</v>
+        <v>2.28</v>
       </c>
       <c r="E94" t="n">
-        <v>0.92</v>
+        <v>0.42</v>
       </c>
       <c r="F94" t="n">
-        <v>1.05</v>
+        <v>0.63</v>
       </c>
       <c r="G94" t="n">
-        <v>0.81</v>
+        <v>0.79</v>
       </c>
       <c r="H94" t="n">
         <v>0.44</v>
@@ -2909,19 +2909,19 @@
         <v>13</v>
       </c>
       <c r="C95" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D95" t="n">
-        <v>-3.64</v>
+        <v>-3.54</v>
       </c>
       <c r="E95" t="n">
-        <v>-1.53</v>
+        <v>-1.34</v>
       </c>
       <c r="F95" t="n">
-        <v>-1.15</v>
+        <v>-1.23</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.84</v>
+        <v>-0.85</v>
       </c>
       <c r="H95" t="n">
         <v>-0.12</v>
@@ -2935,19 +2935,19 @@
         <v>10</v>
       </c>
       <c r="C96" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.16</v>
+        <v>-0.4</v>
       </c>
       <c r="E96" t="n">
-        <v>-0.79</v>
+        <v>-0.81</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.34</v>
+        <v>-0.54</v>
       </c>
       <c r="G96" t="n">
-        <v>0.54</v>
+        <v>0.52</v>
       </c>
       <c r="H96" t="n">
         <v>0.43</v>
@@ -2961,22 +2961,22 @@
         <v>14</v>
       </c>
       <c r="C97" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D97" t="n">
-        <v>1.33</v>
+        <v>3.82</v>
       </c>
       <c r="E97" t="n">
-        <v>0.35</v>
+        <v>1.44</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.23</v>
+        <v>1.1</v>
       </c>
       <c r="G97" t="n">
-        <v>0.57</v>
+        <v>0.64</v>
       </c>
       <c r="H97" t="n">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="98">
@@ -2990,7 +2990,7 @@
         <v>12</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.72</v>
+        <v>-0.71</v>
       </c>
       <c r="E98" t="n">
         <v>-1.11</v>
@@ -3002,7 +3002,7 @@
         <v>0.42</v>
       </c>
       <c r="H98" t="n">
-        <v>-0.59</v>
+        <v>-0.58</v>
       </c>
     </row>
     <row r="99">
@@ -3016,7 +3016,7 @@
         <v>12</v>
       </c>
       <c r="D99" t="n">
-        <v>0.56</v>
+        <v>0.57</v>
       </c>
       <c r="E99" t="n">
         <v>0.65</v>
@@ -3028,7 +3028,7 @@
         <v>0.36</v>
       </c>
       <c r="H99" t="n">
-        <v>-0.86</v>
+        <v>-0.84</v>
       </c>
     </row>
     <row r="100">
@@ -3054,7 +3054,7 @@
         <v>0.46</v>
       </c>
       <c r="H100" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="101">
@@ -3120,7 +3120,7 @@
         <v>12</v>
       </c>
       <c r="D103" t="n">
-        <v>-6.71</v>
+        <v>-6.73</v>
       </c>
       <c r="E103" t="n">
         <v>-1.45</v>
@@ -3132,7 +3132,7 @@
         <v>-2.04</v>
       </c>
       <c r="H103" t="n">
-        <v>-1.19</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="104">
@@ -3143,22 +3143,22 @@
         <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D104" t="n">
-        <v>-6.31</v>
+        <v>2.74</v>
       </c>
       <c r="E104" t="n">
-        <v>-1.76</v>
+        <v>0.1</v>
       </c>
       <c r="F104" t="n">
-        <v>-0.79</v>
+        <v>0.89</v>
       </c>
       <c r="G104" t="n">
-        <v>-1.73</v>
+        <v>1.17</v>
       </c>
       <c r="H104" t="n">
-        <v>-2.03</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="105">
@@ -3169,22 +3169,22 @@
         <v>11</v>
       </c>
       <c r="C105" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.85</v>
+        <v>-4.05</v>
       </c>
       <c r="E105" t="n">
-        <v>-0.05</v>
+        <v>-0.82</v>
       </c>
       <c r="F105" t="n">
-        <v>-0.9</v>
+        <v>-1.22</v>
       </c>
       <c r="G105" t="n">
-        <v>-0.17</v>
+        <v>-1.02</v>
       </c>
       <c r="H105" t="n">
-        <v>0.27</v>
+        <v>-0.99</v>
       </c>
     </row>
     <row r="106">
@@ -3195,22 +3195,22 @@
         <v>12</v>
       </c>
       <c r="C106" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D106" t="n">
-        <v>1.91</v>
+        <v>1.46</v>
       </c>
       <c r="E106" t="n">
         <v>0.75</v>
       </c>
       <c r="F106" t="n">
-        <v>0.6</v>
+        <v>0.42</v>
       </c>
       <c r="G106" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>0.44</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="107">
@@ -3221,22 +3221,22 @@
         <v>13</v>
       </c>
       <c r="C107" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D107" t="n">
-        <v>-1.14</v>
+        <v>-5.67</v>
       </c>
       <c r="E107" t="n">
-        <v>-0.34</v>
+        <v>-1.53</v>
       </c>
       <c r="F107" t="n">
-        <v>-1</v>
+        <v>-1.33</v>
       </c>
       <c r="G107" t="n">
-        <v>-0.06</v>
+        <v>-1.32</v>
       </c>
       <c r="H107" t="n">
-        <v>0.27</v>
+        <v>-1.49</v>
       </c>
     </row>
     <row r="108">
@@ -3247,22 +3247,22 @@
         <v>10</v>
       </c>
       <c r="C108" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D108" t="n">
-        <v>3.09</v>
+        <v>2.89</v>
       </c>
       <c r="E108" t="n">
-        <v>0.35</v>
+        <v>0.38</v>
       </c>
       <c r="F108" t="n">
-        <v>0.94</v>
+        <v>0.61</v>
       </c>
       <c r="G108" t="n">
-        <v>1.29</v>
+        <v>0.89</v>
       </c>
       <c r="H108" t="n">
-        <v>0.51</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="109">
@@ -3273,22 +3273,22 @@
         <v>14</v>
       </c>
       <c r="C109" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D109" t="n">
-        <v>3.29</v>
+        <v>2.63</v>
       </c>
       <c r="E109" t="n">
-        <v>1.05</v>
+        <v>1.12</v>
       </c>
       <c r="F109" t="n">
-        <v>1.15</v>
+        <v>0.64</v>
       </c>
       <c r="G109" t="n">
-        <v>0.56</v>
+        <v>0.29</v>
       </c>
       <c r="H109" t="n">
-        <v>0.53</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="110">
@@ -3302,19 +3302,19 @@
         <v>9</v>
       </c>
       <c r="D110" t="n">
-        <v>2.81</v>
+        <v>2.76</v>
       </c>
       <c r="E110" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="F110" t="n">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="G110" t="n">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
       <c r="H110" t="n">
-        <v>0.74</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="111">
@@ -3328,19 +3328,19 @@
         <v>9</v>
       </c>
       <c r="D111" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="E111" t="n">
-        <v>0.71</v>
+        <v>0.74</v>
       </c>
       <c r="F111" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="G111" t="n">
-        <v>0.56</v>
+        <v>0.55</v>
       </c>
       <c r="H111" t="n">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="112">
@@ -3357,16 +3357,16 @@
         <v>-0.51</v>
       </c>
       <c r="E112" t="n">
-        <v>-0.1</v>
+        <v>-0.16</v>
       </c>
       <c r="F112" t="n">
-        <v>-0.13</v>
+        <v>-0.11</v>
       </c>
       <c r="G112" t="n">
-        <v>-0.47</v>
+        <v>-0.45</v>
       </c>
       <c r="H112" t="n">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="113">
@@ -3380,19 +3380,19 @@
         <v>9</v>
       </c>
       <c r="D113" t="n">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="E113" t="n">
-        <v>-0.15</v>
+        <v>-0.21</v>
       </c>
       <c r="F113" t="n">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="G113" t="n">
-        <v>0.69</v>
+        <v>0.68</v>
       </c>
       <c r="H113" t="n">
-        <v>0.57</v>
+        <v>0.56</v>
       </c>
     </row>
     <row r="114">
@@ -3406,19 +3406,19 @@
         <v>9</v>
       </c>
       <c r="D114" t="n">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="E114" t="n">
-        <v>0.98</v>
+        <v>1.04</v>
       </c>
       <c r="F114" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="G114" t="n">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
       <c r="H114" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="115">
@@ -3432,19 +3432,19 @@
         <v>9</v>
       </c>
       <c r="D115" t="n">
-        <v>-7.5</v>
+        <v>-7.48</v>
       </c>
       <c r="E115" t="n">
-        <v>-1.83</v>
+        <v>-1.78</v>
       </c>
       <c r="F115" t="n">
-        <v>-1.86</v>
+        <v>-1.88</v>
       </c>
       <c r="G115" t="n">
-        <v>-1.82</v>
+        <v>-1.84</v>
       </c>
       <c r="H115" t="n">
-        <v>-1.98</v>
+        <v>-1.99</v>
       </c>
     </row>
     <row r="116">
@@ -3458,13 +3458,13 @@
         <v>11</v>
       </c>
       <c r="D116" t="n">
-        <v>-2.21</v>
+        <v>-2.28</v>
       </c>
       <c r="E116" t="n">
         <v>-0.86</v>
       </c>
       <c r="F116" t="n">
-        <v>0.23</v>
+        <v>0.16</v>
       </c>
       <c r="G116" t="n">
         <v>-2.03</v>
@@ -3484,13 +3484,13 @@
         <v>11</v>
       </c>
       <c r="D117" t="n">
-        <v>2.42</v>
+        <v>2.39</v>
       </c>
       <c r="E117" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="F117" t="n">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="G117" t="n">
         <v>0.58</v>
@@ -3510,11 +3510,11 @@
         <v>11</v>
       </c>
       <c r="D118" t="n">
-        <v>0.17</v>
+        <v>0.01</v>
       </c>
       <c r="E118"/>
       <c r="F118" t="n">
-        <v>-0.19</v>
+        <v>-0.35</v>
       </c>
       <c r="G118" t="n">
         <v>0.36</v>
@@ -3532,13 +3532,13 @@
         <v>11</v>
       </c>
       <c r="D119" t="n">
-        <v>-2.37</v>
+        <v>-2.51</v>
       </c>
       <c r="E119" t="n">
         <v>-0.81</v>
       </c>
       <c r="F119" t="n">
-        <v>-0.11</v>
+        <v>-0.25</v>
       </c>
       <c r="G119" t="n">
         <v>0.34</v>
@@ -3558,13 +3558,13 @@
         <v>11</v>
       </c>
       <c r="D120" t="n">
-        <v>1.71</v>
+        <v>1.92</v>
       </c>
       <c r="E120" t="n">
-        <v>-0.49</v>
+        <v>-0.48</v>
       </c>
       <c r="F120" t="n">
-        <v>1.48</v>
+        <v>1.68</v>
       </c>
       <c r="G120" t="n">
         <v>0.27</v>
@@ -3584,13 +3584,13 @@
         <v>11</v>
       </c>
       <c r="D121" t="n">
-        <v>0.28</v>
+        <v>0.47</v>
       </c>
       <c r="E121" t="n">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="F121" t="n">
-        <v>-1.63</v>
+        <v>-1.39</v>
       </c>
       <c r="G121" t="n">
         <v>0.48</v>
@@ -3610,10 +3610,10 @@
         <v>13</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.08</v>
+        <v>-0.09</v>
       </c>
       <c r="E122" t="n">
-        <v>-1.41</v>
+        <v>-1.43</v>
       </c>
       <c r="F122" t="n">
         <v>0.62</v>
@@ -3639,7 +3639,7 @@
         <v>-0.59</v>
       </c>
       <c r="E123" t="n">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="F123" t="n">
         <v>-1.09</v>
@@ -3648,7 +3648,7 @@
         <v>0.14</v>
       </c>
       <c r="H123" t="n">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="124">
@@ -3662,7 +3662,7 @@
         <v>13</v>
       </c>
       <c r="D124" t="n">
-        <v>2.11</v>
+        <v>2.1</v>
       </c>
       <c r="E124" t="n">
         <v>0.71</v>
@@ -3740,10 +3740,10 @@
         <v>13</v>
       </c>
       <c r="D127" t="n">
-        <v>-6.55</v>
+        <v>-6.53</v>
       </c>
       <c r="E127" t="n">
-        <v>-1.04</v>
+        <v>-1.02</v>
       </c>
       <c r="F127" t="n">
         <v>-1.46</v>
@@ -3766,19 +3766,19 @@
         <v>12</v>
       </c>
       <c r="D128" t="n">
-        <v>-7.83</v>
+        <v>-7.79</v>
       </c>
       <c r="E128" t="n">
-        <v>-1.9</v>
+        <v>-1.92</v>
       </c>
       <c r="F128" t="n">
-        <v>-1.93</v>
+        <v>-1.88</v>
       </c>
       <c r="G128" t="n">
-        <v>-1.99</v>
+        <v>-1.97</v>
       </c>
       <c r="H128" t="n">
-        <v>-2.01</v>
+        <v>-2.03</v>
       </c>
     </row>
     <row r="129">
@@ -3792,19 +3792,19 @@
         <v>12</v>
       </c>
       <c r="D129" t="n">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="E129" t="n">
-        <v>-0.03</v>
+        <v>-0.06</v>
       </c>
       <c r="F129" t="n">
-        <v>0.53</v>
+        <v>0.6</v>
       </c>
       <c r="G129" t="n">
-        <v>0.49</v>
+        <v>0.54</v>
       </c>
       <c r="H129" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="130">
@@ -3818,19 +3818,19 @@
         <v>12</v>
       </c>
       <c r="D130" t="n">
-        <v>2.22</v>
+        <v>2.31</v>
       </c>
       <c r="E130" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="F130" t="n">
-        <v>0.85</v>
+        <v>0.93</v>
       </c>
       <c r="G130" t="n">
-        <v>0.68</v>
+        <v>0.78</v>
       </c>
       <c r="H130" t="n">
-        <v>0.6</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="131">
@@ -3844,19 +3844,19 @@
         <v>12</v>
       </c>
       <c r="D131" t="n">
-        <v>2.21</v>
+        <v>1.36</v>
       </c>
       <c r="E131" t="n">
-        <v>1.03</v>
+        <v>0.9</v>
       </c>
       <c r="F131" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H131" t="n">
         <v>0.35</v>
-      </c>
-      <c r="G131" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0.41</v>
       </c>
     </row>
     <row r="132">
@@ -3870,19 +3870,19 @@
         <v>12</v>
       </c>
       <c r="D132" t="n">
-        <v>0.34</v>
+        <v>0.77</v>
       </c>
       <c r="E132" t="n">
-        <v>0.42</v>
+        <v>0.57</v>
       </c>
       <c r="F132" t="n">
-        <v>-0.17</v>
+        <v>-0.13</v>
       </c>
       <c r="G132" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H132" t="n">
-        <v>0.09</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="133">
@@ -3896,19 +3896,19 @@
         <v>12</v>
       </c>
       <c r="D133" t="n">
-        <v>1.62</v>
+        <v>1.84</v>
       </c>
       <c r="E133" t="n">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="F133" t="n">
-        <v>0.37</v>
+        <v>0.49</v>
       </c>
       <c r="G133" t="n">
-        <v>0.39</v>
+        <v>0.48</v>
       </c>
       <c r="H133" t="n">
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="134">
@@ -3922,19 +3922,19 @@
         <v>10</v>
       </c>
       <c r="D134" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="E134" t="n">
         <v>-1.28</v>
       </c>
-      <c r="E134" t="n">
-        <v>-1.32</v>
-      </c>
       <c r="F134" t="n">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="G134" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="H134" t="n">
-        <v>-1.95</v>
+        <v>-1.94</v>
       </c>
     </row>
     <row r="135">
@@ -3948,19 +3948,19 @@
         <v>10</v>
       </c>
       <c r="D135" t="n">
-        <v>0.02</v>
+        <v>-0.41</v>
       </c>
       <c r="E135" t="n">
-        <v>0.77</v>
+        <v>0.68</v>
       </c>
       <c r="F135" t="n">
-        <v>-0.91</v>
+        <v>-1</v>
       </c>
       <c r="G135" t="n">
-        <v>-0.6</v>
+        <v>-0.83</v>
       </c>
       <c r="H135" t="n">
-        <v>0.76</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="136">
@@ -3974,19 +3974,19 @@
         <v>10</v>
       </c>
       <c r="D136" t="n">
-        <v>-0.46</v>
+        <v>-0.55</v>
       </c>
       <c r="E136" t="n">
-        <v>-1.05</v>
+        <v>-1.03</v>
       </c>
       <c r="F136" t="n">
         <v>0.63</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05</v>
+        <v>-0.05</v>
       </c>
       <c r="H136" t="n">
-        <v>-0.09</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="137">
@@ -4000,19 +4000,19 @@
         <v>10</v>
       </c>
       <c r="D137" t="n">
-        <v>0.81</v>
+        <v>0.67</v>
       </c>
       <c r="E137" t="n">
-        <v>-0.08</v>
+        <v>-0.11</v>
       </c>
       <c r="F137" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="G137" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="H137" t="n">
-        <v>0.42</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="138">
@@ -4026,19 +4026,19 @@
         <v>10</v>
       </c>
       <c r="D138" t="n">
-        <v>2.33</v>
+        <v>2.3</v>
       </c>
       <c r="E138" t="n">
-        <v>0.54</v>
+        <v>0.47</v>
       </c>
       <c r="F138" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="G138" t="n">
-        <v>0.81</v>
+        <v>0.86</v>
       </c>
       <c r="H138" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="139">
@@ -4052,19 +4052,19 @@
         <v>10</v>
       </c>
       <c r="D139" t="n">
-        <v>-1.43</v>
+        <v>-0.92</v>
       </c>
       <c r="E139" t="n">
-        <v>1.12</v>
+        <v>1.27</v>
       </c>
       <c r="F139" t="n">
-        <v>-1.56</v>
+        <v>-1.48</v>
       </c>
       <c r="G139" t="n">
-        <v>-1.63</v>
+        <v>-1.41</v>
       </c>
       <c r="H139" t="n">
-        <v>0.63</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="140">
